--- a/Task 19/solution_5928(Есть вопросы).xlsx
+++ b/Task 19/solution_5928(Есть вопросы).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Django\2022\preparation_for_the_EGE\Task 19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F6CD39-BE3F-4A7B-B27A-AC56E186A0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B78516D-637A-4D38-BF20-B46633E8658E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,21 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -103,6 +117,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -382,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,12 +414,7 @@
     <col min="4" max="4" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -408,45 +424,78 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
+      <c r="G3" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <f>A4+10</f>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C4">
-        <f>MAX(B4*2,B4+10)</f>
-        <v>82</v>
+        <f>B4+10</f>
+        <v>56</v>
       </c>
       <c r="D4">
         <f>B4</f>
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>B4*2</f>
+        <v>92</v>
+      </c>
+      <c r="D5">
+        <f>B4</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
         <f>A4*2</f>
-        <v>62</v>
-      </c>
-      <c r="C5">
-        <f>MAX(B5*2,B5+10)</f>
-        <v>124</v>
-      </c>
-      <c r="D5">
-        <f>B5</f>
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <f>B6+10</f>
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <f>B6</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>B6*2</f>
+        <v>144</v>
+      </c>
+      <c r="D7">
+        <f>B6</f>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D4:D5">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="C4:C5">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThanOrEqual">
       <formula>82</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5">
+  <conditionalFormatting sqref="D4:D5">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThanOrEqual">
+      <formula>82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C7">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+      <formula>82</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>82</formula>
     </cfRule>
